--- a/media/uploads/QIC Meeting.xlsx
+++ b/media/uploads/QIC Meeting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://savethechildren1-my.sharepoint.com/personal/fyruz_zahin_savethechildren_org/Documents/Documents/Jononi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ur_sensei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B083C29-DE16-4F40-97A6-02A9ACE2E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E755FC-8A97-A149-BD9B-84DA33A1310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QIC Meeting" sheetId="3" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Question SR</t>
   </si>
   <si>
-    <t>database name</t>
-  </si>
-  <si>
     <t>Questions in English</t>
   </si>
   <si>
@@ -147,13 +144,16 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,13 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -214,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,6 +244,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,41 +582,41 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
     <col min="3" max="3" width="80" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -616,22 +624,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -639,28 +647,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -668,13 +676,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -683,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -698,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -713,13 +721,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -728,13 +736,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -742,13 +750,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -756,13 +764,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -770,13 +778,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
